--- a/Rostock Printer BOM.xlsx
+++ b/Rostock Printer BOM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren.pruitt\Dropbox\Maker\3D Print\Rostock Max\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren.pruitt\Dropbox\Maker\3D Print\Github\RostockMaxV2_Duet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2424" yWindow="120" windowWidth="22032" windowHeight="10032"/>
+    <workbookView xWindow="3552" yWindow="120" windowWidth="22032" windowHeight="10032"/>
   </bookViews>
   <sheets>
     <sheet name="Rostock Max V2" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Item</t>
   </si>
@@ -117,13 +117,19 @@
     <t>Injection Molded Cheapskate Carriage Set</t>
   </si>
   <si>
-    <t>E3D All-metal v6 HotEnd Fully Assembled 1.75mm Universal (with Bowden add-on) (24v)</t>
-  </si>
-  <si>
-    <t>Hotend upgrade</t>
-  </si>
-  <si>
     <t>For enclosure</t>
+  </si>
+  <si>
+    <t>12"x12" Ultem Sheet (PEI)</t>
+  </si>
+  <si>
+    <t>McMaster-Carr, for Boro Glass</t>
+  </si>
+  <si>
+    <t>Fully Assembled 1.75mm Universal (with Bowden add-on) (24v)</t>
+  </si>
+  <si>
+    <t>E3D All-metal v6 HotEnd</t>
   </si>
 </sst>
 </file>
@@ -188,12 +194,15 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -311,6 +320,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -346,6 +372,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -525,12 +568,12 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
@@ -602,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="1">
@@ -611,10 +654,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="E6" s="1">
         <f>Table1[Count]*Table1[Unit Cost]</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -721,7 +775,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
@@ -739,7 +793,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -757,7 +811,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
@@ -775,7 +829,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
@@ -793,7 +847,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
@@ -819,10 +873,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1">
         <v>105</v>
@@ -905,7 +959,7 @@
       <c r="C29" s="3"/>
       <c r="E29" s="2">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>1912.2400000000002</v>
+        <v>1931.2400000000002</v>
       </c>
     </row>
   </sheetData>
